--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -776,7 +776,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>FESTIVAL #2696, HARTFORD</t>
+          <t>FESTIVAL #2696, HARTFORD - LIFO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -800,7 +800,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON</t>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -851,7 +851,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST - LIFO</t>
+          <t>328 WASHINGTON ST</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,10 +1127,15 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Driver, 
+Red Camry</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1217,13 +1222,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Driver, 
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1316,14 +1320,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1486,10 +1486,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1578,10 +1583,16 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Rx</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1658,13 +1669,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1736,14 +1746,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-Rx</t>
+          <t>@ Store, Supv Rx</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1814,12 +1822,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1895,12 +1904,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store, Supv Rx</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1950,13 +1960,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2007,13 +2016,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>@ Store,
-After Aurora</t>
+Trainer</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2071,12 +2080,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2128,22 +2138,9 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2192,22 +2189,9 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2262,7 +2246,11 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2309,7 +2297,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>SCAN-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2358,7 +2350,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #396, FORT ATKINSON</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2409,7 +2401,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>1505 MADISON AVENUE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2456,7 +2448,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>PICK #396, FORT ATKINSON</t>
+          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2529,7 +2521,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1505 MADISON AVENUE</t>
+          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2592,7 +2584,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2663,11 +2655,7 @@
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2729,13 +2717,21 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2801,9 +2797,21 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Brianna E</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -2842,17 +2850,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2893,12 +2901,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Brianna E</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2944,12 +2952,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2999,12 +3007,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3054,12 +3062,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3109,12 +3117,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3156,12 +3164,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3203,12 +3211,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3246,12 +3254,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3301,12 +3309,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3346,21 +3354,9 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3405,21 +3401,9 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3461,7 +3445,11 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3504,7 +3492,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3546,7 +3538,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #76, WESTPORT MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3589,7 +3581,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5418 N BLUEBILL PARK DR</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3620,7 +3612,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>KELLEY #76, WESTPORT MOBIL, MADISON</t>
+          <t>https://goo.gl/maps/WqiSt2gfnQT2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3651,7 +3643,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5418 N BLUEBILL PARK DR</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3682,7 +3674,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WqiSt2gfnQT2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3711,11 +3703,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3741,13 +3729,22 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3772,8 +3769,16 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3801,18 +3806,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3841,15 +3845,19 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3876,15 +3884,19 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3909,21 +3921,9 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3948,21 +3948,9 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -3987,21 +3975,13 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4013,6 +3993,402 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5810 E STATE ST</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1503,14 +1503,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1601,12 +1597,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1685,13 +1681,14 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1762,12 +1759,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1839,13 +1837,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Brianna E</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Qiana</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2804,7 +2802,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Brianna E</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2855,7 +2853,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2906,7 +2904,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2957,7 +2955,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3012,7 +3010,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3067,7 +3065,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3122,7 +3120,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3169,7 +3167,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3216,7 +3214,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3259,7 +3257,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3307,21 +3305,9 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3402,7 +3388,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3447,7 +3437,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3494,7 +3484,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #76, WESTPORT MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3538,7 +3528,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KELLEY #76, WESTPORT MOBIL, MADISON</t>
+          <t>5418 N BLUEBILL PARK DR</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3581,7 +3571,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5418 N BLUEBILL PARK DR</t>
+          <t>https://goo.gl/maps/WqiSt2gfnQT2</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3612,7 +3602,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WqiSt2gfnQT2</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3643,7 +3633,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3672,11 +3662,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3702,9 +3688,22 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3731,20 +3730,15 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van, Equip</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3771,15 +3765,19 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3806,12 +3804,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3845,12 +3843,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3882,21 +3880,9 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3949,7 +3935,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3978,7 +3968,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4009,7 +3999,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4040,7 +4030,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4071,7 +4061,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4102,7 +4092,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4131,11 +4121,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4161,9 +4147,21 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4190,19 +4188,15 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4229,12 +4223,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4264,12 +4258,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4299,12 +4293,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4334,12 +4328,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4354,41 +4348,6 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -3247,7 +3247,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>*IL Meet is 6:00 am at IL office</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3289,21 +3293,9 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3330,15 +3322,19 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3377,15 +3373,20 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -3424,12 +3425,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3471,12 +3472,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3521,9 +3522,21 @@
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2826,21 +2826,9 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2937,7 +2925,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2990,7 +2982,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3045,7 +3037,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3100,7 +3092,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
+          <t>4002 LINCOLNWAY</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3147,7 +3139,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4002 LINCOLNWAY</t>
+          <t>https://goo.gl/maps/Kxx3oPMedio</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3194,7 +3186,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3241,7 +3233,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*IL Meet is 5:15 am at IL office</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3286,11 +3278,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL office</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -3316,9 +3304,21 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3357,19 +3357,15 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3413,12 +3409,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3460,15 +3456,20 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3507,18 +3508,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3561,21 +3561,9 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Silver Van</t>
         </is>
       </c>
@@ -1625,22 +1625,9 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1794,7 +1781,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1873,7 +1864,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1942,7 +1933,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #385, KAUKAUNA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1998,7 +1989,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #385, KAUKAUNA</t>
+          <t>300 E ANN ST</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2058,7 +2049,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>300 E ANN ST</t>
+          <t>https://goo.gl/maps/bhYPnHyrPcz</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2123,7 +2114,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/bhYPnHyrPcz</t>
+          <t>*Sarah &amp; Lori - meet at 5:00 am at Pig Waupun</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2174,10 +2165,14 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Lori - meet at 5:00 am at Pig Waupun</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/vV3UAbrUC64w9cTz8</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>&lt;---Link to Pig Waupun</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
@@ -2224,16 +2219,8 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/vV3UAbrUC64w9cTz8</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>&lt;---Link to Pig Waupun</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -2282,9 +2269,21 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
@@ -2323,17 +2322,17 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Driver 1/2, Equip</t>
+          <t xml:space="preserve">Driver 1/2  </t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2374,17 +2373,17 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2425,12 +2424,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2485,12 +2484,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2553,12 +2552,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2621,12 +2620,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2689,12 +2688,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2762,21 +2761,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2878,7 +2865,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2927,7 +2918,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2982,7 +2973,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3037,7 +3028,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
+          <t>4002 LINCOLNWAY</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3092,7 +3083,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4002 LINCOLNWAY</t>
+          <t>https://goo.gl/maps/Kxx3oPMedio</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3139,7 +3130,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3186,7 +3177,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*IL Meet is 5:15 am at IL office</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3231,11 +3222,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL office</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3277,9 +3264,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3306,19 +3305,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3357,12 +3352,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3409,15 +3404,20 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3456,18 +3456,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3506,21 +3505,9 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -1211,7 +1211,7 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Silver Van</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1387,14 +1387,10 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1403,10 +1399,15 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1470,7 +1471,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1486,13 +1487,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+Rx</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1563,7 +1565,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1579,14 +1581,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1652,12 +1652,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Supv Rx</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1713,13 +1713,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1730,12 +1729,13 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store, Supv Rx</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1795,12 +1795,13 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1811,13 +1812,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Leyna</t>
+After Aurora</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1876,13 +1877,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1893,13 +1893,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1938,9 +1937,22 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Leyna</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1949,12 +1961,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2005,13 +2018,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+After Aurora</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2055,29 +2068,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START  </t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2122,7 +2118,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t xml:space="preserve">6:30 AM START  </t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2177,13 +2173,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -2225,7 +2225,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>350 N EDWARDS BLVD</t>
+          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+          <t>350 N EDWARDS BLVD</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2296,7 +2296,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #396, FORT ATKINSON</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL office</t>
+          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2347,7 +2347,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>PICK #396, FORT ATKINSON</t>
+          <t>1505 MADISON AVENUE</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*IL Meet is 5:30 am at IL office</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1505 MADISON AVENUE</t>
+          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2439,13 +2439,17 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
+          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2498,27 +2502,14 @@
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2568,22 +2559,23 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2636,24 +2628,31 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2704,29 +2703,34 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2767,29 +2771,24 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2817,18 +2816,31 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2878,12 +2890,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2924,21 +2936,17 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2981,19 +2989,19 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3036,19 +3044,19 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3091,19 +3099,19 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3138,19 +3146,19 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3185,19 +3193,19 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3228,26 +3236,14 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3281,7 +3277,11 @@
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>*IL Meet is 6:00 am at IL office</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3315,24 +3315,16 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3364,25 +3356,24 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3421,20 +3412,25 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #76, WESTPORT MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3472,12 +3468,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3485,7 +3481,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KELLEY #76, WESTPORT MOBIL, MADISON</t>
+          <t>5418 N BLUEBILL PARK DR</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3511,24 +3507,20 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>5418 N BLUEBILL PARK DR</t>
+          <t>https://goo.gl/maps/WqiSt2gfnQT2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3552,14 +3544,26 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WqiSt2gfnQT2</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3590,7 +3594,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3619,11 +3623,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3649,9 +3649,22 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3678,20 +3691,15 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van, Equip</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3718,15 +3726,19 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3753,12 +3765,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3792,12 +3804,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3829,21 +3841,9 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3896,7 +3896,11 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -3925,7 +3929,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3956,7 +3960,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3987,7 +3991,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4018,7 +4022,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4049,7 +4053,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4078,11 +4082,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4108,9 +4108,21 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4137,19 +4149,15 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4176,12 +4184,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4211,12 +4219,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4246,12 +4254,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4281,12 +4289,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4301,41 +4309,6 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -3422,8 +3422,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3476,7 +3475,12 @@
           <t>Joseph</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry?</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -3478,7 +3478,7 @@
       <c r="K54" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry?</t>
+Red Camry</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -1132,7 +1132,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Driver, 
+          <t>Driver, 1/2
 Red Camry</t>
         </is>
       </c>
@@ -1323,7 +1323,11 @@
           <t>Eva</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1402,12 +1406,7 @@
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1493,7 +1492,7 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
+Red Camry,
 Rx</t>
         </is>
       </c>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -2644,7 +2644,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -2474,7 +2474,7 @@
       <c r="W35" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Gray Van, Equip</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Madison Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Madison Schedule.xlsx
@@ -2598,7 +2598,8 @@
       <c r="W37" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Camry 3
+(don't fill with fuel after)</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
